--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -572,22 +572,22 @@
     <t>http://unitsofmeasure.org</t>
   </si>
   <si>
+    <t>Ratio.denominator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
-    <t>Ratio.denominator.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
 </sst>
 </file>
@@ -2904,11 +2904,13 @@
         <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>75</v>
@@ -2949,7 +2951,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2975,13 +2977,13 @@
         <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>154</v>
@@ -2991,7 +2993,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>75</v>
@@ -3013,7 +3015,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>75</v>
